--- a/6. Oscilador Torsional/data/datos_total.xlsx
+++ b/6. Oscilador Torsional/data/datos_total.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Documents\GitHub\Intermedio\6. Oscilador Torsional\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\Oscilador\Intermedio\6. Oscilador Torsional\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71707C2-106D-4A97-9AC3-7CD486537C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CB5F53-842E-4E4F-A787-73860EC1C46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1464" windowWidth="11160" windowHeight="8964" activeTab="1" xr2:uid="{35AA7A23-0E19-4E43-AFBF-C18DCA6DB603}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{35AA7A23-0E19-4E43-AFBF-C18DCA6DB603}"/>
   </bookViews>
   <sheets>
     <sheet name="Act 0" sheetId="1" r:id="rId1"/>
@@ -6184,17 +6184,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>-0.5</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>-0.4</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>-0.3</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>-0.2</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>-0.1</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.1</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.2</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.3</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.4</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.5</v>
       </c>
@@ -6372,21 +6372,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0592B12B-2CB1-4B1A-8411-5A55EE8B3C05}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+    <sheetView topLeftCell="H16" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2">
         <f>B1/100</f>
         <v>1.265E-2</v>
@@ -6421,12 +6421,12 @@
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>3.2-3.01</f>
         <v>0.19000000000000039</v>
@@ -6490,7 +6490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>3.28-3.01</f>
         <v>0.27</v>
@@ -6520,7 +6520,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>3.5-3.01</f>
         <v>0.49000000000000021</v>
@@ -6550,7 +6550,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>3.62-3.01</f>
         <v>0.61000000000000032</v>
@@ -6580,7 +6580,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>3.72-3.01</f>
         <v>0.71000000000000041</v>
@@ -6610,7 +6610,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>3.79-3.01</f>
         <v>0.78000000000000025</v>
@@ -6640,7 +6640,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>3.86-3.01</f>
         <v>0.85000000000000009</v>
@@ -6670,7 +6670,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>3.92-3.01</f>
         <v>0.91000000000000014</v>
@@ -6700,12 +6700,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>3.2-3.01</f>
         <v>0.19000000000000039</v>
@@ -6769,7 +6769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>3.36-3.01</f>
         <v>0.35000000000000009</v>
@@ -6799,7 +6799,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>3.49-3.01</f>
         <v>0.48000000000000043</v>
@@ -6829,7 +6829,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>3.6-3.01</f>
         <v>0.5900000000000003</v>
@@ -6859,7 +6859,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <f>3.69-3.01</f>
         <v>0.68000000000000016</v>
@@ -6889,7 +6889,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>3.78-3.01</f>
         <v>0.77</v>
@@ -6919,7 +6919,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>3.84-3.01</f>
         <v>0.83000000000000007</v>
@@ -6949,7 +6949,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <f>3.9-3.01</f>
         <v>0.89000000000000012</v>
@@ -6993,12 +6993,12 @@
       <selection activeCell="B4" sqref="B4:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1.1499999999999999</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1.25</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1.32</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1.37</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1.44</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1.52</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1.56</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1.6</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1.7</v>
       </c>
@@ -7125,17 +7125,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A79C51-1943-4E1A-A47F-574A3C965DE0}">
   <dimension ref="B4:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>-2</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>-1.8</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>-1.6</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>-1.4</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>-1.2</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>-1</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>-0.8</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>-0.6</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>-0.4</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>-0.2</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.2</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.4</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.6</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.8</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1.2</v>
       </c>
@@ -7403,13 +7403,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1.4</v>
       </c>
       <c r="C22">
-        <f>3.52-3.01</f>
-        <v>0.51000000000000023</v>
+        <v>0.71</v>
       </c>
       <c r="D22">
         <v>0.01</v>
@@ -7418,7 +7417,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1.6</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1.8</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2</v>
       </c>
@@ -7474,7 +7473,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7488,15 +7487,15 @@
       <selection activeCell="B3" sqref="B3:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -7513,7 +7512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>700</v>
       </c>
@@ -7531,7 +7530,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>720</v>
       </c>
@@ -7549,7 +7548,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>740</v>
       </c>
@@ -7567,7 +7566,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>760</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>780</v>
       </c>
@@ -7603,7 +7602,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>800</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>820</v>
       </c>
@@ -7639,7 +7638,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>840</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>860</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>880</v>
       </c>
@@ -7693,7 +7692,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>900</v>
       </c>
@@ -7711,7 +7710,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>920</v>
       </c>
@@ -7729,7 +7728,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>940</v>
       </c>
@@ -7747,7 +7746,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>960</v>
       </c>
@@ -7765,7 +7764,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>980</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1000</v>
       </c>

--- a/6. Oscilador Torsional/data/datos_total.xlsx
+++ b/6. Oscilador Torsional/data/datos_total.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\Oscilador\Intermedio\6. Oscilador Torsional\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Documents\GitHub\Intermedio\6. Oscilador Torsional\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CB5F53-842E-4E4F-A787-73860EC1C46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F89F1FC-5E9A-4AEB-A07F-2AA47B09FE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{35AA7A23-0E19-4E43-AFBF-C18DCA6DB603}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{35AA7A23-0E19-4E43-AFBF-C18DCA6DB603}"/>
   </bookViews>
   <sheets>
     <sheet name="Act 0" sheetId="1" r:id="rId1"/>
@@ -1542,6 +1542,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Amplitud en función de la Frecuencia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1758,6 +1783,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Frecuencia (mHz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1820,6 +1900,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Amplitud (mV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6184,17 +6319,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6208,7 +6343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>-0.5</v>
       </c>
@@ -6222,7 +6357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>-0.4</v>
       </c>
@@ -6236,7 +6371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>-0.3</v>
       </c>
@@ -6250,7 +6385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>-0.2</v>
       </c>
@@ -6264,7 +6399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>-0.1</v>
       </c>
@@ -6278,7 +6413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0</v>
       </c>
@@ -6292,7 +6427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0.1</v>
       </c>
@@ -6306,7 +6441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>0.2</v>
       </c>
@@ -6320,7 +6455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0.3</v>
       </c>
@@ -6334,7 +6469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0.4</v>
       </c>
@@ -6348,7 +6483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>0.5</v>
       </c>
@@ -6376,17 +6511,17 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6405,7 +6540,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B1/100</f>
         <v>1.265E-2</v>
@@ -6421,12 +6556,12 @@
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6434,7 +6569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -6460,7 +6595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6">
         <f>3.2-3.01</f>
         <v>0.19000000000000039</v>
@@ -6490,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7">
         <f>3.28-3.01</f>
         <v>0.27</v>
@@ -6520,7 +6655,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8">
         <f>3.5-3.01</f>
         <v>0.49000000000000021</v>
@@ -6550,7 +6685,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9">
         <f>3.62-3.01</f>
         <v>0.61000000000000032</v>
@@ -6580,7 +6715,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>3.72-3.01</f>
         <v>0.71000000000000041</v>
@@ -6610,7 +6745,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>3.79-3.01</f>
         <v>0.78000000000000025</v>
@@ -6640,7 +6775,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12">
         <f>3.86-3.01</f>
         <v>0.85000000000000009</v>
@@ -6670,7 +6805,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>3.92-3.01</f>
         <v>0.91000000000000014</v>
@@ -6700,12 +6835,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -6713,7 +6848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -6739,7 +6874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21">
         <f>3.2-3.01</f>
         <v>0.19000000000000039</v>
@@ -6769,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22">
         <f>3.36-3.01</f>
         <v>0.35000000000000009</v>
@@ -6799,7 +6934,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23">
         <f>3.49-3.01</f>
         <v>0.48000000000000043</v>
@@ -6829,7 +6964,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24">
         <f>3.6-3.01</f>
         <v>0.5900000000000003</v>
@@ -6859,7 +6994,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25">
         <f>3.69-3.01</f>
         <v>0.68000000000000016</v>
@@ -6889,7 +7024,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26">
         <f>3.78-3.01</f>
         <v>0.77</v>
@@ -6919,7 +7054,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27">
         <f>3.84-3.01</f>
         <v>0.83000000000000007</v>
@@ -6949,7 +7084,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28">
         <f>3.9-3.01</f>
         <v>0.89000000000000012</v>
@@ -6993,12 +7128,12 @@
       <selection activeCell="B4" sqref="B4:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -7006,7 +7141,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -7017,7 +7152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1.1499999999999999</v>
       </c>
@@ -7028,7 +7163,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1.25</v>
       </c>
@@ -7039,7 +7174,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1.32</v>
       </c>
@@ -7050,7 +7185,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1.37</v>
       </c>
@@ -7061,7 +7196,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1.44</v>
       </c>
@@ -7072,7 +7207,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1.52</v>
       </c>
@@ -7083,7 +7218,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1.56</v>
       </c>
@@ -7094,7 +7229,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1.6</v>
       </c>
@@ -7105,7 +7240,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1.7</v>
       </c>
@@ -7125,17 +7260,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A79C51-1943-4E1A-A47F-574A3C965DE0}">
   <dimension ref="B4:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -7149,7 +7284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>-2</v>
       </c>
@@ -7164,7 +7299,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>-1.8</v>
       </c>
@@ -7179,7 +7314,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>-1.6</v>
       </c>
@@ -7194,7 +7329,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>-1.4</v>
       </c>
@@ -7209,7 +7344,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>-1.2</v>
       </c>
@@ -7224,7 +7359,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>-1</v>
       </c>
@@ -7239,7 +7374,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>-0.8</v>
       </c>
@@ -7254,7 +7389,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>-0.6</v>
       </c>
@@ -7269,7 +7404,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>-0.4</v>
       </c>
@@ -7284,7 +7419,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>-0.2</v>
       </c>
@@ -7299,7 +7434,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>0</v>
       </c>
@@ -7313,7 +7448,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>0.2</v>
       </c>
@@ -7328,7 +7463,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>0.4</v>
       </c>
@@ -7343,7 +7478,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0.6</v>
       </c>
@@ -7358,7 +7493,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>0.8</v>
       </c>
@@ -7373,7 +7508,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -7388,7 +7523,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1.2</v>
       </c>
@@ -7403,7 +7538,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1.4</v>
       </c>
@@ -7417,7 +7552,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1.6</v>
       </c>
@@ -7432,7 +7567,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1.8</v>
       </c>
@@ -7447,7 +7582,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2</v>
       </c>
@@ -7473,7 +7608,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7483,19 +7618,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C56B31-FD18-4515-B133-529F7262AFB9}">
   <dimension ref="B3:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -7512,7 +7647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>700</v>
       </c>
@@ -7530,7 +7665,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>720</v>
       </c>
@@ -7548,7 +7683,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>740</v>
       </c>
@@ -7566,7 +7701,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>760</v>
       </c>
@@ -7584,7 +7719,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>780</v>
       </c>
@@ -7602,7 +7737,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>800</v>
       </c>
@@ -7620,7 +7755,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>820</v>
       </c>
@@ -7638,7 +7773,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>840</v>
       </c>
@@ -7656,7 +7791,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>860</v>
       </c>
@@ -7674,7 +7809,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>880</v>
       </c>
@@ -7692,7 +7827,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>900</v>
       </c>
@@ -7710,7 +7845,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>920</v>
       </c>
@@ -7728,7 +7863,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>940</v>
       </c>
@@ -7746,7 +7881,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>960</v>
       </c>
@@ -7764,7 +7899,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>980</v>
       </c>
@@ -7782,7 +7917,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1000</v>
       </c>
